--- a/materiali.xlsx
+++ b/materiali.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorisdipietro/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0518DFE-0B35-E84C-B508-8B69EC6A5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FBC67B-22B6-134D-8B6A-4406AE6BFE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28320" xr2:uid="{585EE441-2F14-574C-866B-D9CE2B4C26E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Magazzino" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
     <sheet name="Form1" sheetId="4" r:id="rId4"/>

--- a/materiali.xlsx
+++ b/materiali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorisdipietro/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FBC67B-22B6-134D-8B6A-4406AE6BFE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053FD25-5683-EB43-A4D3-5DC8629AAFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28320" xr2:uid="{585EE441-2F14-574C-866B-D9CE2B4C26E4}"/>
   </bookViews>
@@ -2081,9 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078C393E-1A3F-EA45-BEAF-C8D365ED83AA}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2097,7 +2095,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
